--- a/results/mp/tinybert/corona/confidence/84/desired-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/desired-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,57 +40,36 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>uncertainty</t>
+    <t>crisis</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>anxiety</t>
+    <t>emergency</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>friend</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
@@ -103,109 +82,124 @@
     <t>love</t>
   </si>
   <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>credit</t>
+    <t>dear</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
     <t>save</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>share</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
 </sst>
 </file>
@@ -563,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -571,10 +565,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -632,13 +626,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -650,19 +644,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M3">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -682,13 +676,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.96</v>
+        <v>0.797945205479452</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>233</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>233</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -700,19 +694,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>26</v>
       </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>18</v>
-      </c>
       <c r="M4">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -732,13 +726,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9166666666666666</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -750,19 +744,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="K5">
-        <v>0.96875</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M5">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -774,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -782,13 +776,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9090909090909091</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -800,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="K6">
-        <v>0.9583333333333334</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L6">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="M6">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -824,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -832,13 +826,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8823529411764706</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -850,19 +844,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="K7">
-        <v>0.95</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L7">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M7">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -874,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -882,13 +876,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8506493506493507</v>
+        <v>0.28</v>
       </c>
       <c r="C8">
-        <v>131</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>131</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -900,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K8">
-        <v>0.9411764705882353</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L8">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M8">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -924,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -932,13 +926,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7083333333333334</v>
+        <v>0.2112403100775194</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="D9">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -950,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>407</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="K9">
-        <v>0.9375</v>
+        <v>0.9017857142857143</v>
       </c>
       <c r="L9">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="M9">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -974,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -982,13 +976,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6875</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C10">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1000,419 +994,227 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>162</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10">
+        <v>0.8974358974358975</v>
+      </c>
+      <c r="L10">
+        <v>35</v>
+      </c>
+      <c r="M10">
+        <v>35</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="L11">
+        <v>24</v>
+      </c>
+      <c r="M11">
+        <v>24</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12">
+        <v>0.8802816901408451</v>
+      </c>
+      <c r="L12">
+        <v>125</v>
+      </c>
+      <c r="M12">
+        <v>125</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="J13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="L13">
+        <v>104</v>
+      </c>
+      <c r="M13">
+        <v>104</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="J14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14">
+        <v>0.859375</v>
+      </c>
+      <c r="L14">
+        <v>110</v>
+      </c>
+      <c r="M14">
+        <v>110</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="J15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15">
+        <v>0.851063829787234</v>
+      </c>
+      <c r="L15">
+        <v>40</v>
+      </c>
+      <c r="M15">
+        <v>40</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="J16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16">
+        <v>0.8448275862068966</v>
+      </c>
+      <c r="L16">
+        <v>49</v>
+      </c>
+      <c r="M16">
+        <v>49</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
+      <c r="J17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17">
+        <v>0.8414634146341463</v>
+      </c>
+      <c r="L17">
+        <v>69</v>
+      </c>
+      <c r="M17">
+        <v>69</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K10">
-        <v>0.9310344827586207</v>
-      </c>
-      <c r="L10">
-        <v>27</v>
-      </c>
-      <c r="M10">
-        <v>27</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="C11">
-        <v>12</v>
-      </c>
-      <c r="D11">
-        <v>12</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>6</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K11">
-        <v>0.9230769230769231</v>
-      </c>
-      <c r="L11">
-        <v>12</v>
-      </c>
-      <c r="M11">
-        <v>12</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.6190476190476191</v>
-      </c>
-      <c r="C12">
-        <v>13</v>
-      </c>
-      <c r="D12">
-        <v>13</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>8</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K12">
-        <v>0.9230769230769231</v>
-      </c>
-      <c r="L12">
-        <v>12</v>
-      </c>
-      <c r="M12">
-        <v>12</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="C13">
-        <v>10</v>
-      </c>
-      <c r="D13">
-        <v>10</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>8</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K13">
-        <v>0.9166666666666666</v>
-      </c>
-      <c r="L13">
-        <v>11</v>
-      </c>
-      <c r="M13">
-        <v>11</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0.4892703862660944</v>
-      </c>
-      <c r="C14">
-        <v>114</v>
-      </c>
-      <c r="D14">
-        <v>114</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>119</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K14">
-        <v>0.9166666666666666</v>
-      </c>
-      <c r="L14">
-        <v>11</v>
-      </c>
-      <c r="M14">
-        <v>11</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>0.4827586206896552</v>
-      </c>
-      <c r="C15">
-        <v>14</v>
-      </c>
-      <c r="D15">
-        <v>14</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>15</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K15">
-        <v>0.9107142857142857</v>
-      </c>
-      <c r="L15">
-        <v>51</v>
-      </c>
-      <c r="M15">
-        <v>51</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="C16">
-        <v>13</v>
-      </c>
-      <c r="D16">
-        <v>13</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>15</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K16">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="L16">
-        <v>24</v>
-      </c>
-      <c r="M16">
-        <v>24</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.2558139534883721</v>
-      </c>
-      <c r="C17">
-        <v>22</v>
-      </c>
-      <c r="D17">
-        <v>22</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>64</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K17">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="L17">
-        <v>48</v>
-      </c>
-      <c r="M17">
-        <v>48</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.1625</v>
-      </c>
-      <c r="C18">
-        <v>13</v>
-      </c>
-      <c r="D18">
-        <v>13</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>67</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="K18">
-        <v>0.8823529411764706</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L18">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M18">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1427,18 +1229,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="K19">
-        <v>0.8823529411764706</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L19">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M19">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1453,174 +1255,174 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="K20">
-        <v>0.88</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L20">
+        <v>20</v>
+      </c>
+      <c r="M20">
+        <v>20</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="10:17">
+      <c r="J21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K21">
+        <v>0.8260869565217391</v>
+      </c>
+      <c r="L21">
+        <v>19</v>
+      </c>
+      <c r="M21">
+        <v>19</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="10:17">
+      <c r="J22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K22">
+        <v>0.82</v>
+      </c>
+      <c r="L22">
+        <v>41</v>
+      </c>
+      <c r="M22">
+        <v>41</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="10:17">
+      <c r="J23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K23">
+        <v>0.8148148148148148</v>
+      </c>
+      <c r="L23">
         <v>22</v>
       </c>
-      <c r="M20">
+      <c r="M23">
         <v>22</v>
       </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="J21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K21">
-        <v>0.8793103448275862</v>
-      </c>
-      <c r="L21">
-        <v>51</v>
-      </c>
-      <c r="M21">
-        <v>51</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="10:17">
+      <c r="J24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K24">
+        <v>0.8113207547169812</v>
+      </c>
+      <c r="L24">
+        <v>86</v>
+      </c>
+      <c r="M24">
+        <v>86</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="10:17">
+      <c r="J25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K25">
+        <v>0.7941176470588235</v>
+      </c>
+      <c r="L25">
+        <v>27</v>
+      </c>
+      <c r="M25">
+        <v>27</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
-      <c r="J22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K22">
-        <v>0.8717948717948718</v>
-      </c>
-      <c r="L22">
-        <v>34</v>
-      </c>
-      <c r="M22">
-        <v>34</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="J23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K23">
-        <v>0.84</v>
-      </c>
-      <c r="L23">
-        <v>21</v>
-      </c>
-      <c r="M23">
-        <v>21</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K24">
-        <v>0.8235294117647058</v>
-      </c>
-      <c r="L24">
-        <v>14</v>
-      </c>
-      <c r="M24">
-        <v>14</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K25">
-        <v>0.7945205479452054</v>
-      </c>
-      <c r="L25">
-        <v>58</v>
-      </c>
-      <c r="M25">
-        <v>58</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="K26">
-        <v>0.7692307692307693</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L26">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M26">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1635,18 +1437,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="K27">
-        <v>0.7692307692307693</v>
+        <v>0.7843137254901961</v>
       </c>
       <c r="L27">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="M27">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1658,21 +1460,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="K28">
-        <v>0.7652582159624414</v>
+        <v>0.775</v>
       </c>
       <c r="L28">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="M28">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1684,21 +1486,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="K29">
-        <v>0.76</v>
+        <v>0.7467362924281984</v>
       </c>
       <c r="L29">
-        <v>19</v>
+        <v>286</v>
       </c>
       <c r="M29">
-        <v>19</v>
+        <v>286</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1710,47 +1512,47 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="K30">
-        <v>0.7575757575757576</v>
+        <v>0.7340425531914894</v>
       </c>
       <c r="L30">
+        <v>69</v>
+      </c>
+      <c r="M30">
+        <v>69</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>25</v>
       </c>
-      <c r="M30">
-        <v>25</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
+    </row>
+    <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K31">
-        <v>0.7368421052631579</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L31">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="M31">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1762,21 +1564,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="K32">
-        <v>0.7054263565891473</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L32">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="M32">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1788,47 +1590,47 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="K33">
-        <v>0.7</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="L33">
+        <v>31</v>
+      </c>
+      <c r="M33">
+        <v>31</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
         <v>14</v>
-      </c>
-      <c r="M33">
-        <v>14</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>6</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="K34">
-        <v>0.7</v>
+        <v>0.6875</v>
       </c>
       <c r="L34">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="M34">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1840,21 +1642,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="K35">
-        <v>0.6630434782608695</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L35">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="M35">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1866,21 +1668,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="K36">
-        <v>0.6388888888888888</v>
+        <v>0.6576271186440678</v>
       </c>
       <c r="L36">
-        <v>92</v>
+        <v>194</v>
       </c>
       <c r="M36">
-        <v>92</v>
+        <v>194</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1892,21 +1694,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>52</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="K37">
-        <v>0.6071428571428571</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="L37">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M37">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1923,16 +1725,16 @@
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K38">
-        <v>0.5454545454545454</v>
+        <v>0.6205882352941177</v>
       </c>
       <c r="L38">
-        <v>12</v>
+        <v>211</v>
       </c>
       <c r="M38">
-        <v>12</v>
+        <v>211</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1944,21 +1746,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>10</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="K39">
-        <v>0.5416666666666666</v>
+        <v>0.6</v>
       </c>
       <c r="L39">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M39">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1970,21 +1772,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="K40">
-        <v>0.5142857142857142</v>
+        <v>0.6</v>
       </c>
       <c r="L40">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M40">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1996,21 +1798,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="K41">
-        <v>0.3157894736842105</v>
+        <v>0.5955056179775281</v>
       </c>
       <c r="L41">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="M41">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2022,7 +1824,163 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>26</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K42">
+        <v>0.5205479452054794</v>
+      </c>
+      <c r="L42">
+        <v>38</v>
+      </c>
+      <c r="M42">
+        <v>38</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K43">
+        <v>0.5128205128205128</v>
+      </c>
+      <c r="L43">
+        <v>40</v>
+      </c>
+      <c r="M43">
+        <v>40</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K44">
+        <v>0.5106382978723404</v>
+      </c>
+      <c r="L44">
+        <v>24</v>
+      </c>
+      <c r="M44">
+        <v>24</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K45">
+        <v>0.4644351464435146</v>
+      </c>
+      <c r="L45">
+        <v>111</v>
+      </c>
+      <c r="M45">
+        <v>111</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K46">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="L46">
+        <v>25</v>
+      </c>
+      <c r="M46">
+        <v>25</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K47">
+        <v>0.296875</v>
+      </c>
+      <c r="L47">
+        <v>19</v>
+      </c>
+      <c r="M47">
+        <v>19</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
